--- a/src/assets/xlsx/SmartPass Picture Map.xlsx
+++ b/src/assets/xlsx/SmartPass Picture Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterluba/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146A5808-86D5-424B-9818-3FDC3CB42420}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DEE049-1EEE-7842-9B78-6F687648AFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11140" yWindow="4640" windowWidth="22460" windowHeight="14980" xr2:uid="{F0609AC7-9001-194C-B511-4347A98AED9C}"/>
+    <workbookView xWindow="18980" yWindow="500" windowWidth="14620" windowHeight="18840" xr2:uid="{F0609AC7-9001-194C-B511-4347A98AED9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Rooms" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
     <t>543298.jpeg</t>
   </si>
   <si>
-    <t>User ID</t>
+    <t>Email or Clever ID</t>
   </si>
 </sst>
 </file>
@@ -444,12 +444,12 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>

--- a/src/assets/xlsx/SmartPass Picture Map.xlsx
+++ b/src/assets/xlsx/SmartPass Picture Map.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterluba/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterluba/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DEE049-1EEE-7842-9B78-6F687648AFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A984020-3AAD-F149-B7E0-5C0006BCA231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18980" yWindow="500" windowWidth="14620" windowHeight="18840" xr2:uid="{F0609AC7-9001-194C-B511-4347A98AED9C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Rooms" sheetId="1" r:id="rId1"/>
+    <sheet name="Profile Picture Map" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
